--- a/AutomationTemplate/src/main/resources/excel/testdata.xlsx
+++ b/AutomationTemplate/src/main/resources/excel/testdata.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cdanismaz/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cdanismaz/Documents/workspace/java/AutomationTemplate/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EFD56F3-2E03-4844-BFCF-2A0727F7A7E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E799AD-B7F8-B845-B1D8-BDF3B4BF4210}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14300" yWindow="7780" windowWidth="28040" windowHeight="17440" xr2:uid="{3FD07996-6937-5541-86A8-6C6233AC65A7}"/>
+    <workbookView xWindow="58500" yWindow="3520" windowWidth="28040" windowHeight="17440" xr2:uid="{3FD07996-6937-5541-86A8-6C6233AC65A7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -22,6 +22,29 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>postcode</t>
+  </si>
+  <si>
+    <t>cansu</t>
+  </si>
+  <si>
+    <t>danismaz</t>
+  </si>
+  <si>
+    <t>0600a</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -372,12 +395,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FD5453-D373-CD42-967C-A2F776C346A4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/AutomationTemplate/src/main/resources/excel/testdata.xlsx
+++ b/AutomationTemplate/src/main/resources/excel/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cdanismaz/Documents/workspace/java/AutomationTemplate/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E799AD-B7F8-B845-B1D8-BDF3B4BF4210}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0484CD-DD2E-534F-82C6-C554FFDE91D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58500" yWindow="3520" windowWidth="28040" windowHeight="17440" xr2:uid="{3FD07996-6937-5541-86A8-6C6233AC65A7}"/>
+    <workbookView xWindow="14840" yWindow="7680" windowWidth="28040" windowHeight="17440" xr2:uid="{3FD07996-6937-5541-86A8-6C6233AC65A7}"/>
   </bookViews>
   <sheets>
     <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>firstname</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>0600a</t>
+  </si>
+  <si>
+    <t>alerttext</t>
+  </si>
+  <si>
+    <t>Customer added successfully</t>
   </si>
 </sst>
 </file>
@@ -395,13 +401,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FD5453-D373-CD42-967C-A2F776C346A4}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="22.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,8 +422,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -421,6 +435,9 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
